--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-019 HDPE Pipe Installation - Rev.2.xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-019 HDPE Pipe Installation - Rev.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345B3326-1D88-42FC-A4E9-BCEF004E63D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0089F1-77BB-4529-AFED-A37671C3BD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="2265" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="131">
   <si>
     <t>type</t>
   </si>
@@ -67,103 +67,352 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHL Key - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-019 HDPE Pipe Installation - Rev.2</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7 - </t>
-  </si>
-  <si>
     <t>2.0 Excavation &amp; Backfill</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 - </t>
-  </si>
-  <si>
     <t>3.0 Testing, Commissioning and Conformance</t>
+  </si>
+  <si>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Issued drawings / Site copy drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks.</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>SHL Key - S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 - Lot Traceability </t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 7.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Prepare a lot map for traceability of the work area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (eg. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>Lot map</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>1.3 - Pipe Material</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has the correct class &amp; type of drainage pipe been supplied. Has the pipe been inspected to be clean and free of defects?</t>
+  </si>
+  <si>
+    <t>Material conformance certificate</t>
+  </si>
+  <si>
+    <t>1.4 - Embedment material</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1352 Pipe Drainage [Cl 5.1]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Embedment Material to be a cohesionless material with a plasticity index less than 6.</t>
+  </si>
+  <si>
+    <t>Alternatively, embedment material may be a drainage aggregate (10,14 or 20mm) as specified in AS/NZS 2566.2</t>
+  </si>
+  <si>
+    <t>– – – – – – – – – – – – – – – –</t>
+  </si>
+  <si>
+    <t>Table 5.1 Embedment material grading</t>
+  </si>
+  <si>
+    <t>Sieve size (mm) || Weight passing (%)</t>
+  </si>
+  <si>
+    <t>19.0 || 100</t>
+  </si>
+  <si>
+    <t>2.36 || 50-100</t>
+  </si>
+  <si>
+    <t>0.6 || 20-90</t>
+  </si>
+  <si>
+    <t>0.3 || 10-60</t>
+  </si>
+  <si>
+    <t>0.15 || 0-25</t>
+  </si>
+  <si>
+    <t>0.075 || 0-10</t>
+  </si>
+  <si>
+    <t>(Table taken from AS/NZS 2566.2, Table 5.5)</t>
+  </si>
+  <si>
+    <t>Delivery dockets</t>
+  </si>
+  <si>
+    <t>Test reports</t>
+  </si>
+  <si>
+    <t>1.5 - Welder Qualifications</t>
+  </si>
+  <si>
+    <t>Ref docs - PIPA TP003</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Have the workers involved in welding of HDPE pipes been trained by a Registered Training Organisation?</t>
+  </si>
+  <si>
+    <t>Welders Qualifications</t>
+  </si>
+  <si>
+    <t>1.6 - Underlying Lot Conformance</t>
+  </si>
+  <si>
+    <t>Ref docs - Underlying Lot ITP</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Underlying services and/or assets have been installed prior to commencing works over and/or above. Refer underlying lot ITP(s)</t>
+  </si>
+  <si>
+    <t>1.7 - Set out</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Setout of water line alignment and level. This shall be presented for inspection by the superintendent, if requested.</t>
+  </si>
+  <si>
+    <t>2.1 - Excavation</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1352. Pipe Drainage [Cl 5.1], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has the Trench been excavated to the correct width and depth to allow for the pipe size being installed?</t>
+  </si>
+  <si>
+    <t>PE Pipes:</t>
+  </si>
+  <si>
+    <t>Table 5.2 Trench and embedment dimensions</t>
+  </si>
+  <si>
+    <t>Extreme external || Minimum dimensions (mm)</t>
+  </si>
+  <si>
+    <t>Dia (De)mm || x : s : o : y</t>
+  </si>
+  <si>
+    <t>≥ 75 ≤ 150 || 75 : 100 : 100 : Pipe dia.</t>
+  </si>
+  <si>
+    <t>&gt; 150 ≤ 300 || 100 : 150 : 150 : Pipe dia.</t>
+  </si>
+  <si>
+    <t>&gt; 300 ≤ 450 || 100 : 150 : 150 : Pipe dia.</t>
+  </si>
+  <si>
+    <t>&gt; 450 ≤ 900 || 150 : 300 : 150 : Pipe dia.</t>
+  </si>
+  <si>
+    <t>&gt; 900 ≤ 1500 || 150 : 350 : 200 : Pipe dia.</t>
+  </si>
+  <si>
+    <t>2.2 - Compaction –Bedding</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1352 Pipe Drainage [Cl 5.1, 5.4]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Bedding:</t>
+  </si>
+  <si>
+    <t>○ Has the correct thickness nominal of bedding been placed and adequately compacted below the pipe to achieve 70% Standard Compaction? (Compaction test N/A if drainage aggregate is used as bedding)</t>
+  </si>
+  <si>
+    <t>2.3 - Pipe &amp; Fittings Installation</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings Manufacturer Specifications Spec. 1352 Pipe Drainage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Have correct pipes (size and type), bends, risers, valves &amp; junctions been welded and installed as per manufacturer specifications? All weld records to be recorded daily on the HDPE butt fusion checklist </t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - W</t>
+  </si>
+  <si>
+    <t>SHL Key - W</t>
+  </si>
+  <si>
+    <t>HDPE Butt Welding Checklist</t>
+  </si>
+  <si>
+    <t>2.4 - Destructive Testing</t>
+  </si>
+  <si>
+    <t>Ref docs - PIPA TP003, PIPA POP014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Destructive Testing to be carried out as per PIPA guidelines using the Tensile Test Method at a NATA accredited laboratory. Frequency of testing will be one test every 100 welds. If a test fails the frequency to be dropped to one test every 10 welds until at least 5 consecutive conforming tests are received. </t>
+  </si>
+  <si>
+    <t>WITNESS POINT</t>
+  </si>
+  <si>
+    <t>Key - W</t>
+  </si>
+  <si>
+    <t>2.5 - Flanged Joint Installation</t>
+  </si>
+  <si>
+    <t>Ref docs - AS/NZS 2033 Cl 4.5</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Flanged joints to be installed as per the drawings and manufacturer specifications. All flange joints to have a gasket or backing ring as nominated in the drawings.</t>
+  </si>
+  <si>
+    <t>2.6 - Backfill</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The pipe must be backfilled with the correct material and nominal thickness as per the project drawings and specifications</t>
+  </si>
+  <si>
+    <t>2.7 - Compaction – Embedment material</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - PE Pipe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Side and Overlay: Required relative compaction in the side and overlay zone shall be 70% for trafficable areas and 60% for non-trafficable areas (AS 1289.5.4.1 Standard Compaction) </t>
+  </si>
+  <si>
+    <t>○ Layers not to exceed 150mm compacted thickness.</t>
+  </si>
+  <si>
+    <t>2.8 - Compaction – General Fill</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1352 Pipe Drainage [Cl 5.4]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - For sections of the trench above the overlay zone; backfill with general fill if in verges, medians or greater than 1.5m from top of pavement.</t>
+  </si>
+  <si>
+    <t>○ Minimum relative compaction to be 92%</t>
+  </si>
+  <si>
+    <t>2.9 - Compaction – Select Fill</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - For sections of the trench above the overlay zone and within 1.5m of top of pavement; backfill with Select fill.</t>
+  </si>
+  <si>
+    <t>○ Minimum relative compaction to be 97%</t>
+  </si>
+  <si>
+    <t>2.10 - Moisture Content</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Moisture Content for Backfill material to be within 60% to 95% OMC unless otherwise approved by Superintendent</t>
+  </si>
+  <si>
+    <t>2.11 - Marker Tape</t>
+  </si>
+  <si>
+    <t>Ref docs - Design Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Detectable Marker Tape to be installed a minimum of 300mm above the pipe. Tape to be red and labelled “Danger – Buried Fire Main Below”</t>
+  </si>
+  <si>
+    <t>3.1 - Preliminary Pressure Test</t>
+  </si>
+  <si>
+    <t>Ref docs - AS/NZS 3500 Cl 17.3.1.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Subjecting the pipe to 1500kPa for 30 minutes and checking for any leak.</t>
+  </si>
+  <si>
+    <t>3.2 - Hydrostatic Pressure Test</t>
+  </si>
+  <si>
+    <t>Ref docs - AS/NZS 2033 Cl 7.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has the line undertaken a hydrostatic pressure test in accordance with AS/NZS 2033 Clause 7.2 achieving at least 1.25 times the maximum working pressure of the pipeline?</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>3.3 - Survey Report</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.13] RFI-026</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has an as-built survey of the system been completed to ensure all pipes are within construction tolerances.</t>
+  </si>
+  <si>
+    <t>Plan: +/- 200mm</t>
+  </si>
+  <si>
+    <t>Level: +/- 50mm</t>
+  </si>
+  <si>
+    <t>Survey report</t>
+  </si>
+  <si>
+    <t>3.4 - Acceptance and closure of non-conforming items</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - NCRs to be opened for non-conforming items and closed prior to closing construction lot. </t>
   </si>
 </sst>
 </file>
@@ -306,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +755,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +925,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -685,6 +940,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1042,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1102,24 +1360,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1127,7 +1385,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1135,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1154,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1162,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1170,15 +1428,15 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1186,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1194,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1213,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1221,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,42 +1487,39 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,15 +1527,18 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,15 +1546,15 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,7 +1562,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,26 +1570,23 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,15 +1602,15 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>35</v>
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,7 +1618,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,18 +1626,15 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>12</v>
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,15 +1658,15 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,18 +1682,15 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>12</v>
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1449,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,15 +1714,18 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>37</v>
+      <c r="A46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,7 +1733,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,18 +1741,15 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>12</v>
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,39 +1757,39 @@
         <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>38</v>
+      <c r="B53" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>26</v>
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,26 +1797,26 @@
         <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>16</v>
+      <c r="A56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,23 +1840,23 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>27</v>
+      <c r="A61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>15</v>
+      <c r="A62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,26 +1864,26 @@
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,23 +1899,23 @@
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>28</v>
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>15</v>
+      <c r="A69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,26 +1923,26 @@
         <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,42 +1958,39 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>46</v>
+      <c r="A75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B76" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>16</v>
+      <c r="A77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
+      <c r="A78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,7 +2006,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,15 +2014,15 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>45</v>
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1784,7 +2030,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,18 +2038,15 @@
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>12</v>
+      <c r="A85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,7 +2054,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,15 +2070,15 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>44</v>
+      <c r="A89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,7 +2086,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1851,26 +2094,26 @@
         <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1886,23 +2129,23 @@
         <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>43</v>
+      <c r="A96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>15</v>
+      <c r="A97" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1910,18 +2153,15 @@
         <v>13</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>12</v>
+      <c r="A99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,15 +2169,18 @@
         <v>13</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>20</v>
+      <c r="A101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,15 +2188,15 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>41</v>
+      <c r="A103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,7 +2204,7 @@
         <v>13</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,26 +2212,23 @@
         <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>12</v>
+      <c r="A106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>19</v>
+      <c r="A107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1996,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,23 +2244,26 @@
         <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>42</v>
+      <c r="A110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>15</v>
+      <c r="A111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,18 +2271,15 @@
         <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>12</v>
+      <c r="A113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2047,7 +2287,7 @@
         <v>13</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2055,23 +2295,23 @@
         <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2079,7 +2319,7 @@
         <v>13</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2087,26 +2327,26 @@
         <v>13</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B121" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2114,7 +2354,7 @@
         <v>13</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,15 +2362,15 @@
         <v>13</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>39</v>
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,26 +2378,23 @@
         <v>13</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>12</v>
+      <c r="A127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,7 +2402,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,31 +2410,34 @@
         <v>13</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>33</v>
+      <c r="A130" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>47</v>
+      <c r="A131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>29</v>
+      <c r="A132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2205,26 +2445,23 @@
         <v>13</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>16</v>
+      <c r="A134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>12</v>
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,15 +2469,18 @@
         <v>13</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>20</v>
+      <c r="A137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,15 +2488,15 @@
         <v>13</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>32</v>
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2264,26 +2504,23 @@
         <v>13</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>16</v>
+      <c r="A141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>12</v>
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2291,7 +2528,7 @@
         <v>13</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,7 +2536,7 @@
         <v>13</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2307,15 +2544,18 @@
         <v>13</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>31</v>
+      <c r="A146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2323,7 +2563,7 @@
         <v>13</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2331,18 +2571,15 @@
         <v>13</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>12</v>
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2350,31 +2587,31 @@
         <v>13</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>33</v>
+      <c r="A152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>30</v>
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,7 +2619,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2390,7 +2627,7 @@
         <v>13</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,7 +2646,7 @@
         <v>13</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2417,7 +2654,7 @@
         <v>13</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2425,7 +2662,577 @@
         <v>13</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
